--- a/biology/Botanique/Jardin_botanique_de_Coimbra/Jardin_botanique_de_Coimbra.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Coimbra/Jardin_botanique_de_Coimbra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Coimbra est un jardin botanique portugais, créé en 1772, qui dépend de l'université de Coimbra.
-Ce jardin est un Immeuble d'intérêt public (1996)[1]. 
+Ce jardin est un Immeuble d'intérêt public (1996). 
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1731, Jacob de Castro Sarmento (pt) fait une première tentative pour créer un jardin botanique à Coimbra, en prenant pour référence le Chelsea Physic Garden de Londres.
 Mais ce n'est qu'en 1772, que le jardin botanique voit finalement le jour, en tant que « Jardin botanique de l'université de Coimbra. » Il est partie intégrante du « Musée d'histoire naturelle » créé par le marquis de Pombal dans le cadre de la réforme des études universitaires que celui-ci met en œuvre. 
